--- a/data/trans_orig/P20B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0DD404E-FF10-4878-A681-C5FAFA289EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2DF931-7282-4904-999A-86939A7CD6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9318D4C9-1A35-4361-932F-C4F24FD95E3E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59F387C2-B0C4-4047-B21C-A94AA7DC46E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="436">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>43,83%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>56,17%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,10 +107,10 @@
     <t>33,65%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
   </si>
   <si>
     <t>17,81%</t>
@@ -119,31 +119,31 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>31,36%</t>
+    <t>35,15%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>68,64%</t>
+    <t>64,85%</t>
   </si>
   <si>
     <t>92,41%</t>
@@ -152,10 +152,10 @@
     <t>77,13%</t>
   </si>
   <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -164,55 +164,55 @@
     <t>20,89%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -221,55 +221,55 @@
     <t>22,47%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>77,53%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -278,1069 +278,1075 @@
     <t>31,41%</t>
   </si>
   <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
   </si>
   <si>
     <t>81,35%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>83,25%</t>
   </si>
   <si>
     <t>72,12%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924B5F20-40CD-4160-835B-B077C97FBE01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCA3AF8-58D0-4DF9-86FC-04ECC97A4348}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2809,7 +2815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57513C0F-8E1F-4DCF-BEB5-F2EEAD3C5004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4609676D-5EB1-4769-9706-4B6D4BDD77BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3872,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEBFCFD-C6AE-4567-AF07-258329A1B4A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACD1B5-ADBA-4816-AD12-F50D71B95CE2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4649,10 +4655,10 @@
         <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,10 +4676,10 @@
         <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -4682,13 +4688,13 @@
         <v>68238</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -4697,13 +4703,13 @@
         <v>102939</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4777,13 @@
         <v>54751</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4786,13 +4792,13 @@
         <v>65647</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -4801,13 +4807,13 @@
         <v>120398</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4828,13 @@
         <v>107726</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -4837,13 +4843,13 @@
         <v>203884</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -4852,13 +4858,13 @@
         <v>311610</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61C81FE-26E0-4B20-B10C-73F2D4B212D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3DC52F-C837-4AC9-A1BD-F208BA114125}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4952,7 +4958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5059,13 +5065,13 @@
         <v>6026</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5074,13 +5080,13 @@
         <v>2183</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5089,13 +5095,13 @@
         <v>8210</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5116,13 @@
         <v>7205</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5125,13 +5131,13 @@
         <v>5852</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5140,13 +5146,13 @@
         <v>13057</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,7 +5566,7 @@
         <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5581,13 @@
         <v>22539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5590,13 +5596,13 @@
         <v>34799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -5605,13 +5611,13 @@
         <v>57338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5685,13 @@
         <v>20965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5694,13 +5700,13 @@
         <v>18923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -5709,13 +5715,13 @@
         <v>39889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5736,13 @@
         <v>42558</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5745,13 +5751,13 @@
         <v>60611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -5760,13 +5766,13 @@
         <v>103168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5840,13 @@
         <v>65223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5849,13 +5855,13 @@
         <v>53717</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>162</v>
@@ -5864,13 +5870,13 @@
         <v>118940</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5891,13 @@
         <v>131178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -5900,13 +5906,13 @@
         <v>182649</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>410</v>
@@ -5915,13 +5921,13 @@
         <v>313826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2DF931-7282-4904-999A-86939A7CD6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1934DA-688C-45D3-BA6C-6A326808544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59F387C2-B0C4-4047-B21C-A94AA7DC46E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B8ABE60-134C-479A-853C-2AFAECF9880D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,10 +80,10 @@
     <t>43,83%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,184 +92,184 @@
     <t>56,17%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>77,53%</t>
   </si>
   <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -278,712 +278,718 @@
     <t>31,41%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>65,78%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>27,87%</t>
@@ -992,31 +998,31 @@
     <t>23,78%</t>
   </si>
   <si>
-    <t>32,67%</t>
+    <t>32,25%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>75,64%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>67,33%</t>
+    <t>67,75%</t>
   </si>
   <si>
     <t>76,22%</t>
@@ -1136,9 +1142,6 @@
     <t>25,86%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
     <t>40,02%</t>
   </si>
   <si>
@@ -1164,9 +1167,6 @@
   </si>
   <si>
     <t>59,98%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
   </si>
   <si>
     <t>78,26%</t>
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCA3AF8-58D0-4DF9-86FC-04ECC97A4348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165DBF3-C643-4F33-A362-504807F180F4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2815,7 +2815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4609676D-5EB1-4769-9706-4B6D4BDD77BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F058B236-AE2D-49EA-B39F-38F56857BBBD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,7 +3720,7 @@
         <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -3729,13 +3729,13 @@
         <v>82264</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3744,13 +3744,13 @@
         <v>144017</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3765,13 @@
         <v>146011</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
@@ -3780,13 +3780,13 @@
         <v>252272</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -3795,13 +3795,13 @@
         <v>398284</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACD1B5-ADBA-4816-AD12-F50D71B95CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3FFA7C-7204-4A8B-B92E-24C7F7A2659E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3895,7 +3895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4002,13 +4002,13 @@
         <v>7349</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4017,13 +4017,13 @@
         <v>1691</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4032,13 +4032,13 @@
         <v>9041</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4053,13 @@
         <v>3591</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4068,13 +4068,13 @@
         <v>6258</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4083,13 +4083,13 @@
         <v>9849</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4157,13 @@
         <v>10886</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4172,13 +4172,13 @@
         <v>12095</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4187,13 +4187,13 @@
         <v>22981</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +4208,10 @@
         <v>14198</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>252</v>
@@ -4360,7 +4360,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>33411</v>
+        <v>33412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>268</v>
@@ -4411,7 +4411,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4655,10 +4655,10 @@
         <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,10 +4676,10 @@
         <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -4688,13 +4688,13 @@
         <v>68238</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -4703,13 +4703,13 @@
         <v>102939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4777,13 @@
         <v>54751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4792,13 +4792,13 @@
         <v>65647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -4807,13 +4807,13 @@
         <v>120398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4828,13 @@
         <v>107726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -4843,13 +4843,13 @@
         <v>203884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -4858,13 +4858,13 @@
         <v>311610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3DC52F-C837-4AC9-A1BD-F208BA114125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826BD89F-281A-4D7B-BFF6-3BDE0566FC8B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4958,7 +4958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5065,13 +5065,13 @@
         <v>6026</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5080,13 +5080,13 @@
         <v>2183</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5095,13 +5095,13 @@
         <v>8210</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5116,13 @@
         <v>7205</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5131,13 +5131,13 @@
         <v>5852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5146,13 +5146,13 @@
         <v>13057</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5220,13 @@
         <v>10584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5235,13 +5235,13 @@
         <v>9908</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -5250,13 +5250,13 @@
         <v>20492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5271,13 @@
         <v>21876</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>47</v>
@@ -5286,13 +5286,13 @@
         <v>26915</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
@@ -5301,13 +5301,13 @@
         <v>48792</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5375,13 @@
         <v>12908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -5390,13 +5390,13 @@
         <v>15135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5405,13 +5405,13 @@
         <v>28042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5426,13 @@
         <v>37000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>

--- a/data/trans_orig/P20B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1934DA-688C-45D3-BA6C-6A326808544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B407FCA7-0C95-49D1-8D56-980D57CCF0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B8ABE60-134C-479A-853C-2AFAECF9880D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00B71587-ED87-43FA-BD2F-E0480980410B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>43,83%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>56,17%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,55 +107,55 @@
     <t>33,65%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -164,55 +164,55 @@
     <t>20,89%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -221,55 +221,55 @@
     <t>22,47%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>77,53%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -278,109 +278,109 @@
     <t>31,41%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -392,178 +392,178 @@
     <t>38,58%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
   </si>
   <si>
     <t>47,33%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
   </si>
   <si>
     <t>52,67%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>74,27%</t>
   </si>
   <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>13,9%</t>
   </si>
   <si>
     <t>33,96%</t>
@@ -572,781 +572,775 @@
     <t>27,07%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
     <t>72,12%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165DBF3-C643-4F33-A362-504807F180F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95353846-EDAD-41F5-89C2-F57AC3408773}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2815,7 +2809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F058B236-AE2D-49EA-B39F-38F56857BBBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019678AE-F507-42BC-AD01-8F83D7A22465}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,7 +3714,7 @@
         <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -3729,13 +3723,13 @@
         <v>82264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3744,13 +3738,13 @@
         <v>144017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3759,13 @@
         <v>146011</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
@@ -3780,13 +3774,13 @@
         <v>252272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -3795,13 +3789,13 @@
         <v>398284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3FFA7C-7204-4A8B-B92E-24C7F7A2659E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F9783A-5C3C-40C8-8949-812F7E1F6C51}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3895,7 +3889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4002,13 +3996,13 @@
         <v>7349</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4017,13 +4011,13 @@
         <v>1691</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4032,13 +4026,13 @@
         <v>9041</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4047,13 @@
         <v>3591</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4068,13 +4062,13 @@
         <v>6258</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4083,13 +4077,13 @@
         <v>9849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4151,13 @@
         <v>10886</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4172,13 +4166,13 @@
         <v>12095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4187,13 +4181,13 @@
         <v>22981</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +4202,10 @@
         <v>14198</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>252</v>
@@ -4360,7 +4354,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>33412</v>
+        <v>33411</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>268</v>
@@ -4411,7 +4405,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>45679</v>
+        <v>45678</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4941,7 +4935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826BD89F-281A-4D7B-BFF6-3BDE0566FC8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB17D50-9580-4258-86C5-5DBCF5733155}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5098,10 +5092,10 @@
         <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5110,13 @@
         <v>7205</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5131,13 +5125,13 @@
         <v>5852</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5146,13 +5140,13 @@
         <v>13057</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5214,13 @@
         <v>10584</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5235,13 +5229,13 @@
         <v>9908</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -5250,13 +5244,13 @@
         <v>20492</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5265,13 @@
         <v>21876</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>47</v>
@@ -5286,13 +5280,13 @@
         <v>26915</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
@@ -5301,13 +5295,13 @@
         <v>48792</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5369,13 @@
         <v>12908</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -5390,13 +5384,13 @@
         <v>15135</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5405,13 +5399,13 @@
         <v>28042</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5420,13 @@
         <v>37000</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -5566,7 +5560,7 @@
         <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5575,13 @@
         <v>22539</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5596,13 +5590,13 @@
         <v>34799</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -5611,13 +5605,13 @@
         <v>57338</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5679,13 @@
         <v>20965</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5700,13 +5694,13 @@
         <v>18923</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -5715,13 +5709,13 @@
         <v>39889</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5730,13 @@
         <v>42558</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5751,13 +5745,13 @@
         <v>60611</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -5766,13 +5760,13 @@
         <v>103168</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5834,13 @@
         <v>65223</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5855,13 +5849,13 @@
         <v>53717</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>162</v>
@@ -5870,13 +5864,13 @@
         <v>118940</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5885,13 @@
         <v>131178</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -5906,13 +5900,13 @@
         <v>182649</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>410</v>
@@ -5921,13 +5915,13 @@
         <v>313826</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B407FCA7-0C95-49D1-8D56-980D57CCF0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A081E11-25FB-4E25-ADA4-3CC611F86F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00B71587-ED87-43FA-BD2F-E0480980410B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{65D6DA06-38BD-4ABF-AFB7-FEBB570E7E63}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="374">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -68,96 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -215,7 +191,7 @@
     <t>90,09%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>22,47%</t>
@@ -389,112 +365,52 @@
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>25,73%</t>
@@ -716,106 +632,58 @@
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>26,85%</t>
@@ -1031,316 +899,268 @@
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
 </sst>
 </file>
@@ -1752,8 +1572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95353846-EDAD-41F5-89C2-F57AC3408773}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E80D8B-0F3C-43D5-A6A5-C95EF44B6CA0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1870,96 +1690,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5807</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>4551</v>
+        <v>11096</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>4551</v>
+        <v>16904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11450</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>5833</v>
+        <v>36046</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>5833</v>
+        <v>47495</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,151 +1792,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17257</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>10384</v>
+        <v>47142</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>10384</v>
+        <v>64399</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5807</v>
+        <v>7787</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>6545</v>
+        <v>10167</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>12353</v>
+        <v>17954</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>11450</v>
+        <v>29496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7">
-        <v>30212</v>
+        <v>65144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>41662</v>
+        <v>94640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,54 +1947,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>17257</v>
+        <v>37283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7">
-        <v>36757</v>
+        <v>75311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N9" s="7">
-        <v>54015</v>
+        <v>112594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2177,97 +2003,97 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>7787</v>
+        <v>8509</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>10167</v>
+        <v>16745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>17954</v>
+        <v>25254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>29496</v>
+        <v>29355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>65144</v>
+        <v>40893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>94640</v>
+        <v>70248</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,153 +2102,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>37283</v>
+        <v>37864</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I12" s="7">
-        <v>75311</v>
+        <v>57638</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="N12" s="7">
-        <v>112594</v>
+        <v>95502</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>8509</v>
+        <v>13059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>16745</v>
+        <v>12150</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>25254</v>
+        <v>25209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>29355</v>
+        <v>28519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>40893</v>
+        <v>56126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="N14" s="7">
-        <v>70248</v>
+        <v>84645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,153 +2257,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7">
-        <v>37864</v>
+        <v>41578</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I15" s="7">
-        <v>57638</v>
+        <v>68276</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="N15" s="7">
-        <v>95502</v>
+        <v>109854</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>13059</v>
+        <v>35163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>12150</v>
+        <v>50158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>25209</v>
+        <v>85321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D17" s="7">
-        <v>28519</v>
+        <v>98819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="I17" s="7">
-        <v>56126</v>
+        <v>198209</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="N17" s="7">
-        <v>84645</v>
+        <v>297028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,217 +2412,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="D18" s="7">
-        <v>41578</v>
+        <v>133982</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="I18" s="7">
-        <v>68276</v>
+        <v>248367</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>376</v>
       </c>
       <c r="N18" s="7">
-        <v>109854</v>
+        <v>382349</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35163</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="7">
-        <v>52</v>
-      </c>
-      <c r="I19" s="7">
-        <v>50158</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="7">
-        <v>89</v>
-      </c>
-      <c r="N19" s="7">
-        <v>85321</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>98</v>
-      </c>
-      <c r="D20" s="7">
-        <v>98819</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7">
-        <v>189</v>
-      </c>
-      <c r="I20" s="7">
-        <v>198209</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>287</v>
-      </c>
-      <c r="N20" s="7">
-        <v>297028</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>135</v>
-      </c>
-      <c r="D21" s="7">
-        <v>133982</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>241</v>
-      </c>
-      <c r="I21" s="7">
-        <v>248367</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>376</v>
-      </c>
-      <c r="N21" s="7">
-        <v>382349</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2809,8 +2479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019678AE-F507-42BC-AD01-8F83D7A22465}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBDC96-4684-4F75-B924-744566712A50}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2826,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2927,100 +2597,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>3305</v>
+        <v>14794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>8586</v>
+        <v>18827</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>11891</v>
+        <v>33622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>5262</v>
+        <v>30594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>7971</v>
+        <v>55659</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>13232</v>
+        <v>86252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,153 +2699,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>8567</v>
+        <v>45388</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7">
-        <v>16557</v>
+        <v>74486</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="N6" s="7">
-        <v>25123</v>
+        <v>119874</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>11489</v>
+        <v>15842</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>10242</v>
+        <v>26710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>21731</v>
+        <v>42552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>25332</v>
+        <v>45735</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="I8" s="7">
-        <v>47688</v>
+        <v>69622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="N8" s="7">
-        <v>73020</v>
+        <v>115357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,153 +2854,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>36821</v>
+        <v>61577</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>57930</v>
+        <v>96332</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="N9" s="7">
-        <v>94751</v>
+        <v>157909</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>15842</v>
+        <v>16038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>26710</v>
+        <v>17308</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>42552</v>
+        <v>33345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>45735</v>
+        <v>31675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>69622</v>
+        <v>58152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="N11" s="7">
-        <v>115357</v>
+        <v>89828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,153 +3009,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7">
-        <v>61577</v>
+        <v>47713</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7">
-        <v>96332</v>
+        <v>75460</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>157909</v>
+        <v>123173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>16038</v>
+        <v>15080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>17308</v>
+        <v>19418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>33345</v>
+        <v>34498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>31675</v>
+        <v>38007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I14" s="7">
-        <v>58152</v>
+        <v>68839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>89828</v>
+        <v>106846</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,153 +3164,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7">
-        <v>47713</v>
+        <v>53087</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>75460</v>
+        <v>88257</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="N15" s="7">
-        <v>123173</v>
+        <v>141344</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>15080</v>
+        <v>61754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7">
-        <v>19418</v>
+        <v>82264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="N16" s="7">
-        <v>34498</v>
+        <v>144017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="D17" s="7">
-        <v>38007</v>
+        <v>146011</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="I17" s="7">
-        <v>68839</v>
+        <v>252272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="N17" s="7">
-        <v>106846</v>
+        <v>398284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,217 +3319,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>53087</v>
+        <v>207765</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="I18" s="7">
-        <v>88257</v>
+        <v>334536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="N18" s="7">
-        <v>141344</v>
+        <v>542301</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>57</v>
-      </c>
-      <c r="D19" s="7">
-        <v>61754</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="7">
-        <v>75</v>
-      </c>
-      <c r="I19" s="7">
-        <v>82264</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7">
-        <v>132</v>
-      </c>
-      <c r="N19" s="7">
-        <v>144017</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>135</v>
-      </c>
-      <c r="D20" s="7">
-        <v>146011</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="7">
-        <v>236</v>
-      </c>
-      <c r="I20" s="7">
-        <v>252272</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M20" s="7">
-        <v>371</v>
-      </c>
-      <c r="N20" s="7">
-        <v>398284</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>192</v>
-      </c>
-      <c r="D21" s="7">
-        <v>207765</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>311</v>
-      </c>
-      <c r="I21" s="7">
-        <v>334536</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>503</v>
-      </c>
-      <c r="N21" s="7">
-        <v>542301</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3872,8 +3386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F9783A-5C3C-40C8-8949-812F7E1F6C51}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F235C14-B0E1-485A-910C-8AB4F14B82FA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3889,7 +3403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,100 +3504,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>7349</v>
+        <v>18235</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1691</v>
+        <v>13786</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>9041</v>
+        <v>32021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>3591</v>
+        <v>17789</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>6258</v>
+        <v>32356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>9849</v>
+        <v>50146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,153 +3606,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>10940</v>
+        <v>36024</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>7949</v>
+        <v>46142</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N6" s="7">
-        <v>18890</v>
+        <v>82167</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10886</v>
+        <v>12267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>12095</v>
+        <v>15544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>22981</v>
+        <v>27811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>14198</v>
+        <v>33412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I8" s="7">
-        <v>26098</v>
+        <v>61464</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="N8" s="7">
-        <v>40296</v>
+        <v>94875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,153 +3761,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7">
-        <v>25084</v>
+        <v>45679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I9" s="7">
-        <v>38193</v>
+        <v>77008</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N9" s="7">
-        <v>63277</v>
+        <v>122686</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11369</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>12267</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
       <c r="I10" s="7">
-        <v>15544</v>
+        <v>14019</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>27811</v>
+        <v>25388</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>33411</v>
+        <v>21824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>61464</v>
+        <v>41826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>94875</v>
+        <v>63650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,153 +3916,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>45678</v>
+        <v>33193</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>77008</v>
+        <v>55845</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="N12" s="7">
-        <v>122686</v>
+        <v>89038</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>11369</v>
+        <v>12881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>14019</v>
+        <v>22298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>25388</v>
+        <v>35178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>21824</v>
+        <v>34700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>41826</v>
+        <v>68238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="N14" s="7">
-        <v>63650</v>
+        <v>102939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,153 +4071,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>33193</v>
+        <v>47581</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>55845</v>
+        <v>90536</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="N15" s="7">
-        <v>89038</v>
+        <v>138117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>12881</v>
+        <v>54751</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>22298</v>
+        <v>65647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="N16" s="7">
-        <v>35178</v>
+        <v>120398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D17" s="7">
-        <v>34700</v>
+        <v>107726</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="I17" s="7">
-        <v>68238</v>
+        <v>203884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="N17" s="7">
-        <v>102939</v>
+        <v>311610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,217 +4226,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D18" s="7">
-        <v>47581</v>
+        <v>162477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="I18" s="7">
-        <v>90536</v>
+        <v>269531</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>130</v>
+        <v>401</v>
       </c>
       <c r="N18" s="7">
-        <v>138117</v>
+        <v>432008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>51</v>
-      </c>
-      <c r="D19" s="7">
-        <v>54751</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" s="7">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>65647</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M19" s="7">
-        <v>110</v>
-      </c>
-      <c r="N19" s="7">
-        <v>120398</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>103</v>
-      </c>
-      <c r="D20" s="7">
-        <v>107726</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H20" s="7">
-        <v>188</v>
-      </c>
-      <c r="I20" s="7">
-        <v>203884</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>291</v>
-      </c>
-      <c r="N20" s="7">
-        <v>311610</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>154</v>
-      </c>
-      <c r="D21" s="7">
-        <v>162477</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>247</v>
-      </c>
-      <c r="I21" s="7">
-        <v>269531</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>401</v>
-      </c>
-      <c r="N21" s="7">
-        <v>432008</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4935,8 +4293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB17D50-9580-4258-86C5-5DBCF5733155}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC28F11-76CF-4072-8324-FDB72D04B95F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4952,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5053,100 +4411,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>6026</v>
+        <v>15997</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>2183</v>
+        <v>11551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>8210</v>
+        <v>27548</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>7205</v>
+        <v>28353</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7">
-        <v>5852</v>
+        <v>30646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="N5" s="7">
-        <v>13057</v>
+        <v>58999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,153 +4513,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7">
-        <v>13231</v>
+        <v>44350</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I6" s="7">
-        <v>8035</v>
+        <v>42197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="N6" s="7">
-        <v>21267</v>
+        <v>86547</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>10584</v>
+        <v>12287</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>9908</v>
+        <v>13841</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>20492</v>
+        <v>26128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>21876</v>
+        <v>35201</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>26915</v>
+        <v>49511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="N8" s="7">
-        <v>48792</v>
+        <v>84712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,153 +4668,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>32460</v>
+        <v>47488</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I9" s="7">
-        <v>36823</v>
+        <v>63352</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="N9" s="7">
-        <v>69284</v>
+        <v>110840</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>12908</v>
+        <v>14195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>15135</v>
+        <v>6975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>28042</v>
+        <v>21169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>37000</v>
+        <v>21194</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>54472</v>
+        <v>31853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="N11" s="7">
-        <v>91472</v>
+        <v>53048</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,153 +4823,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>49908</v>
+        <v>35389</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>69607</v>
+        <v>38828</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>119514</v>
+        <v>74217</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>14740</v>
+        <v>19798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>7568</v>
+        <v>17477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>22307</v>
+        <v>37275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>22539</v>
+        <v>41033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="I14" s="7">
-        <v>34799</v>
+        <v>54990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="N14" s="7">
-        <v>57338</v>
+        <v>96023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,153 +4978,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>37279</v>
+        <v>60831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="I15" s="7">
-        <v>42367</v>
+        <v>72467</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="N15" s="7">
-        <v>79645</v>
+        <v>133298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>20965</v>
+        <v>62276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>18923</v>
+        <v>49843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="N16" s="7">
-        <v>39889</v>
+        <v>112120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D17" s="7">
-        <v>42558</v>
+        <v>125782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="I17" s="7">
-        <v>60611</v>
+        <v>167000</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M17" s="7">
         <v>410</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M17" s="7">
-        <v>134</v>
-      </c>
       <c r="N17" s="7">
-        <v>103168</v>
+        <v>292782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,217 +5133,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="D18" s="7">
-        <v>63523</v>
+        <v>188058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="I18" s="7">
-        <v>79534</v>
+        <v>216843</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>192</v>
+        <v>572</v>
       </c>
       <c r="N18" s="7">
-        <v>143057</v>
+        <v>404902</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>77</v>
-      </c>
-      <c r="D19" s="7">
-        <v>65223</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H19" s="7">
-        <v>85</v>
-      </c>
-      <c r="I19" s="7">
-        <v>53717</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="M19" s="7">
-        <v>162</v>
-      </c>
-      <c r="N19" s="7">
-        <v>118940</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>151</v>
-      </c>
-      <c r="D20" s="7">
-        <v>131178</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H20" s="7">
-        <v>259</v>
-      </c>
-      <c r="I20" s="7">
-        <v>182649</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M20" s="7">
-        <v>410</v>
-      </c>
-      <c r="N20" s="7">
-        <v>313826</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>228</v>
-      </c>
-      <c r="D21" s="7">
-        <v>196401</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>344</v>
-      </c>
-      <c r="I21" s="7">
-        <v>236366</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>572</v>
-      </c>
-      <c r="N21" s="7">
-        <v>432766</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
